--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
   <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -691,12 +691,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.若查無此帳號，則回應「帳號不存在」訊息；
 2.若密碼輸入錯誤，則回應「密碼錯誤」訊息；
 3.若輸入帳號已停用，則回應「帳號已失效」訊息</t>
@@ -789,6 +783,20 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
+(請參考APF訊息表-系統功能=必填欄位，狀態=提示)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
+(請參考APF訊息表-系統功能=必填欄位，狀態=提示)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1446,6 +1454,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,11 +1497,194 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1473,21 +1697,9 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,105 +1715,15 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1620,9 +1742,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,15 +1772,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,133 +1781,10 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2827,7 +2835,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2875,13 +2883,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>200026</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2961,23 +2969,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5015,7 +5010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5029,12 +5024,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -5065,7 +5060,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5073,61 +5068,61 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="63"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="63"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="63"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="63"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5207,7 +5202,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="75" t="s">
         <v>85</v>
       </c>
       <c r="F1" s="13"/>
@@ -5230,7 +5225,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="65"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5244,7 +5239,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="65"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5451,15 +5446,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="75" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="65"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="65"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" s="57" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="58"/>
@@ -5476,250 +5471,243 @@
       <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="144"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="147" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:13" s="39" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="76" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="151" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:13" s="39" customFormat="1">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="151" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:13" s="39" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:13" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:13" s="37" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="152"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="128"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A35:L35"/>
@@ -5736,6 +5724,13 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5861,7 +5856,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="75" t="s">
         <v>85</v>
       </c>
       <c r="L1" s="13"/>
@@ -5888,7 +5883,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -5906,7 +5901,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -5950,18 +5945,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6028,18 +6023,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6074,20 +6069,20 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="165">
+      <c r="A12" s="99">
         <v>1</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="97" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>118</v>
@@ -6104,12 +6099,12 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="166"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>113</v>
@@ -6126,16 +6121,16 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="165">
+      <c r="A14" s="99">
         <v>2</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="97" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -6152,29 +6147,29 @@
         <v>117</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="166"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
         <v>117</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="99">
@@ -6198,11 +6193,14 @@
         <v>131</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -6211,9 +6209,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6236,8 +6231,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6266,7 +6261,7 @@
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
       <c r="J1" s="58"/>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="75" t="s">
         <v>85</v>
       </c>
       <c r="L1" s="36"/>
@@ -6287,7 +6282,7 @@
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:17" s="57" customFormat="1">
       <c r="A3" s="58"/>
@@ -6300,7 +6295,7 @@
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
       <c r="J3" s="58"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:17" s="57" customFormat="1">
       <c r="A4" s="58"/>
@@ -6315,154 +6310,154 @@
       <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:17" s="37" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:17" s="37" customFormat="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:17" s="37" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:17" s="39" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:17" s="39" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:17" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="155"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:17" s="37" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="47" t="s">
@@ -6471,90 +6466,90 @@
       <c r="B16" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="51.75" customHeight="1">
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="47">
         <v>1</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="159" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
-    </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="51" customHeight="1">
+      <c r="C17" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+    </row>
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="47">
         <v>2</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="159" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="168"/>
+      <c r="C18" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
     </row>
     <row r="19" spans="1:10" s="37" customFormat="1">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
     </row>
     <row r="20" spans="1:10" s="37" customFormat="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="74"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
+      <c r="A21" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="1:10" s="37" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="47" t="s">
@@ -6563,16 +6558,16 @@
       <c r="B22" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="156" t="s">
+      <c r="C22" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="23" spans="1:10" s="37" customFormat="1" ht="53.25" customHeight="1">
       <c r="A23" s="47">
@@ -6581,56 +6576,56 @@
       <c r="B23" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" s="37" customFormat="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
     </row>
     <row r="25" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113"/>
     </row>
     <row r="27" spans="1:10" s="37" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="47" t="s">
@@ -6639,16 +6634,16 @@
       <c r="B27" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:10" s="37" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="47">
@@ -6657,16 +6652,16 @@
       <c r="B28" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="159" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="161"/>
+      <c r="C28" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" s="37" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="47">
@@ -6675,54 +6670,54 @@
       <c r="B29" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+      <c r="C29" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:10" s="37" customFormat="1">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:10" s="37" customFormat="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="95"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="127"/>
     </row>
     <row r="32" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="40" t="s">
@@ -6737,14 +6732,14 @@
       <c r="D33" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
@@ -6755,26 +6750,26 @@
       <c r="B34" s="44"/>
       <c r="C34" s="45"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
     </row>
     <row r="35" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
+      <c r="A35" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="121"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
     </row>
@@ -6783,164 +6778,164 @@
         <v>1</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="60"/>
-      <c r="E36" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
+      <c r="E36" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
     </row>
     <row r="37" spans="1:12" s="37" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="47">
         <v>2</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="60"/>
-      <c r="E37" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="E37" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
     </row>
     <row r="38" spans="1:12" s="37" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="47">
         <v>3</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="60"/>
-      <c r="E38" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
+      <c r="E38" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="82"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="75" t="s">
+      <c r="C41" s="147"/>
+      <c r="D41" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
+      <c r="A42" s="142"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="49"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
     </row>
     <row r="44" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="49"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="72"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="144"/>
     </row>
     <row r="46" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="49"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="77"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="50" t="s">
@@ -6963,14 +6958,14 @@
       <c r="B48" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="49">
@@ -6979,30 +6974,33 @@
       <c r="B49" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="E36:J36"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A35:J35"/>
@@ -7019,22 +7017,19 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7078,13 +7073,13 @@
       <c r="A1" s="58"/>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
-      <c r="D1" s="112"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="75" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="58"/>
@@ -7107,7 +7102,7 @@
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
-      <c r="J2" s="65"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:19">
@@ -7120,7 +7115,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
-      <c r="J3" s="65"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:19">
@@ -7137,265 +7132,283 @@
       <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115" t="s">
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="152"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="159"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="122" t="s">
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="64" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="127">
+      <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="127" t="s">
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="127" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="127">
+      <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="127" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="127" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127">
+      <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="127" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="127" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127">
+      <c r="A12" s="65">
         <v>1</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="84" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
-      <c r="A13" s="127">
+      <c r="A13" s="65">
         <v>2</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="84" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="132">
+      <c r="A14" s="160">
         <v>3</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="132"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="132"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="127"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="137"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="132"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="127"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="77"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="132"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="127"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="132"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="132" t="s">
+      <c r="A20" s="160"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A5:C5"/>
@@ -7412,24 +7425,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -685,12 +685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.若查無此帳號，則回應「帳號不存在」訊息；
 2.若密碼輸入錯誤，則回應「密碼錯誤」訊息；
 3.若輸入帳號已停用，則回應「帳號已失效」訊息</t>
@@ -703,15 +697,6 @@
   <si>
     <t>Core_User</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息"使用者帳號不存在"。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息"使用者密碼錯誤"。
-2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息"使用者密碼錯誤"。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -754,48 +739,185 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0002MM1_Login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0002MM1_Login畫面所有欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入型態:string
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並將cursor停留於該欄位且顏色反橘。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並將cursor停留於該欄位且顏色反橘。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息顯示錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。
+2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號、密碼經由Querystring模式，提供APF預設處理頁面(RA006_APF0001_登入主畫面與框架顯示)進行後續處理。
 2.若驗證失敗，則顯示錯誤訊息。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0002MM1_Login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0002MM1_Login畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>依所輸入的帳號進行密碼提示查詢。
+    <r>
+      <t>依所輸入的帳號進行密碼提示查詢。
 1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
-2.若未設定提示資訊，則顯示「尚未設定」訊息。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
-(請參考APF訊息表-系統功能=必填欄位，狀態=提示)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
-(請參考APF訊息表-系統功能=必填欄位，狀態=提示)</t>
+2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -806,7 +928,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -943,6 +1065,14 @@
     <font>
       <sz val="12"/>
       <color indexed="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1559,17 +1689,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1715,6 +1845,21 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,21 +1889,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2836,8 +2966,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2882,13 +3012,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5068,7 +5198,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -5078,7 +5208,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
@@ -5088,7 +5218,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -5430,10 +5560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5690,27 +5820,27 @@
       <c r="K17" s="78"/>
       <c r="L17" s="79"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="77" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A37:L37"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5756,8 +5886,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5775,13 +5905,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
@@ -6069,20 +6199,20 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="99">
+      <c r="A12" s="97">
         <v>1</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="99" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>118</v>
@@ -6099,12 +6229,12 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>113</v>
@@ -6121,16 +6251,16 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="99">
+      <c r="A14" s="97">
         <v>2</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="99" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -6147,29 +6277,29 @@
         <v>117</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
         <v>117</v>
       </c>
       <c r="J15" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="99">
@@ -6193,11 +6323,15 @@
         <v>131</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
@@ -6205,10 +6339,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6231,8 +6361,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6246,7 +6376,7 @@
     <col min="7" max="7" width="7.625" style="36" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="36" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="36" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="36" customWidth="1"/>
     <col min="11" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
@@ -6485,7 +6615,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="109"/>
@@ -6503,7 +6633,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D18" s="114"/>
       <c r="E18" s="114"/>
@@ -6539,7 +6669,7 @@
     </row>
     <row r="21" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
       <c r="A21" s="111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="112"/>
       <c r="C21" s="112"/>
@@ -6577,7 +6707,7 @@
         <v>111</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D23" s="109"/>
       <c r="E23" s="109"/>
@@ -6653,7 +6783,7 @@
         <v>111</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
@@ -6671,7 +6801,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="108" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
@@ -6759,7 +6889,7 @@
     </row>
     <row r="35" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="119" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B35" s="120"/>
       <c r="C35" s="120"/>
@@ -6778,14 +6908,14 @@
         <v>1</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="104" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
@@ -6798,14 +6928,14 @@
         <v>2</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F37" s="81"/>
       <c r="G37" s="81"/>
@@ -6818,14 +6948,14 @@
         <v>3</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="104" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
@@ -7132,38 +7262,38 @@
       <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="152" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="152"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157" t="s">
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="159"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="164"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="64" t="s">
@@ -7190,11 +7320,11 @@
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="65" t="s">
         <v>33</v>
       </c>
@@ -7209,11 +7339,11 @@
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
       <c r="E9" s="65" t="s">
         <v>33</v>
       </c>
@@ -7228,11 +7358,11 @@
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="65" t="s">
         <v>0</v>
       </c>
@@ -7262,11 +7392,11 @@
       <c r="A12" s="65">
         <v>1</v>
       </c>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="81" t="s">
         <v>6</v>
       </c>
@@ -7279,11 +7409,11 @@
       <c r="A13" s="65">
         <v>2</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="81" t="s">
         <v>70</v>
       </c>
@@ -7293,29 +7423,29 @@
       <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="160">
+      <c r="A14" s="165">
         <v>3</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="49" t="s">
         <v>35</v>
       </c>
@@ -7329,7 +7459,7 @@
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="160"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="82" t="s">
         <v>39</v>
       </c>
@@ -7337,63 +7467,60 @@
       <c r="D16" s="82"/>
       <c r="E16" s="65"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="151" t="s">
+      <c r="G16" s="156" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="160"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="65"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="151"/>
+      <c r="G17" s="156"/>
       <c r="H17" s="79"/>
       <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="160"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
       <c r="E18" s="65"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="151"/>
+      <c r="G18" s="156"/>
       <c r="H18" s="79"/>
       <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="160"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
       <c r="E19" s="65"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="151"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="79"/>
       <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="160"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="82"/>
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="166"/>
       <c r="I20" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A14:A20"/>
@@ -7405,6 +7532,15 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
@@ -7419,12 +7555,6 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,27 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="欄位說明APF0002MM1" sheetId="14" r:id="rId4"/>
-    <sheet name="APF0002MM1" sheetId="7" r:id="rId5"/>
-    <sheet name="method-bsLoadAPF0002MM1Qry" sheetId="15" r:id="rId6"/>
+    <sheet name="IPO" sheetId="34" r:id="rId4"/>
+    <sheet name="畫面_APF0002MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0002MM1" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">APF0002MM1!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">欄位說明APF0002MM1!$A$1:$J$16</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">APF0002MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'method-bsLoadAPF0002MM1Qry'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0002MM1!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0002MM1!$A$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">欄位說明APF0002MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0002MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0002MM1!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">APF0002MM1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0002MM1!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -38,39 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_cust_id(客戶代號)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_center_id(登入者所屬營業所ID)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>底層取得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>依照客戶代號與訂單日期，自DB中查詢未集貨且無取消的電子訂單資料，並顯示在Grid中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>依照輸入的客戶代號與訂單日期，自DB中查詢一般電子訂單資料，並顯示在Grid中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>print_date(訂單日期)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -82,27 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回傳型別</t>
-  </si>
-  <si>
-    <t>序號</t>
-  </si>
-  <si>
-    <t>方法的業務流程說明</t>
-  </si>
-  <si>
-    <t>方法的設計流程說明</t>
-  </si>
-  <si>
-    <t>方法內自訂的錯誤</t>
-  </si>
-  <si>
-    <t>自訂錯誤一覽表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>NO.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,36 +103,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方法名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataSet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯誤代碼</t>
-  </si>
-  <si>
-    <t>類型</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DB型態及長度</t>
@@ -208,20 +124,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>查無資料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息：查無資料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bsLoadEO0107MM1Qry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>_CLICK</t>
@@ -362,29 +266,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>//define which columns will be selected
-判斷e_order.bill_id是否已經存在tran_bill中
- select bill_id from tran_bill where bill_id=DataSet.bill_id and seq_no='0' 
-1.不存在--&gt;利用DataSet中的電子訂單序號到DB中抓取電子訂單資料為參數，轉入至CD模組的託運單資料表(tran_bill)，新增成功回傳true；失敗回傳false且rollback
-2.存在--&gt;需在判斷該tran_bill是否已經集貨
-select col_create_date,col_del_flag form tran_bill where bill_id=DataSet.bill_id and seq_no='0'
-a.已集貨:col_create_date is not null&amp;&amp;col_del_flag='0'--&gt;出現錯誤訊息"XXX託運單號已集貨"
-b.未集貨--&gt;修改該託運單號的集貨資料，修改成功回傳true；失敗回傳false且rollback
-a.SER_ID, a.ORDER_TYPE, a.BILL_ID, a.ORDER_ID, a.CUST_ID, a.TEMP_TYPE, a.DST_TYPE, 
-a.SPEC_TYPE, a.IF_AGENCY, a.GOODS_PRICE, a.IF_REACHPAID, a.PAID_TYPE, a.REC_NAME, 
-a.REC_TEL, a.REC_MOBILE, a.REC_ZIP_CODE, a.REC_ADDR, a.SNT_NAME, a.SNT_TEL, 
-a.SNT_MOBILE, a.SNT_ZIP_CODE, a.SNT_ADDR, a.PRINT_DATE, a.CLC_PERIOD, a.RCV_PERIOD, a.MEMBER_ID, a.GOODS_NAME, a.IF_BREAKABLE,  a.IF_PRECISION, a.MEMO, a.ROUTE_ID, a.COL_CENTER_ID, a.DEST_CENTER_ID, b.CUST_NAME, c.DEP_NAME, d.TEMP_NAME, e.DST_NAME, f.DIM_NAME  
-FROM E_Order a,Cust_Today_V b,Dep_Today_V c,Temp_Master d,Dst_Master e,Dim_Master f 
-WHERE a.CUST_ID=b.cust_id(+) and  
-a.DEST_CENTER_ID=c.dep_id(+) and 
-a.TEMP_TYPE=d.TEMP_ID(+) and d.eff_s_date&lt;=SYSDATE and d.eff_e_date&gt;=SYSDATE and 
-a.DST_TYPE=e.DST_ID(+) and e.eff_s_date&lt;=SYSDATE and e.eff_e_date&gt;=SYSDATE and 
-a.SPEC_TYPE=f.DIM_ID(+) and f.eff_s_date&lt;=SYSDATE and f.eff_e_date&gt;=SYSDATE and 
-a.IF_CANCEL='N' and a.IF_TRAN_BILL='N' and 
-a.COL_CENTER_ID=:user_center_id and a.CUST_ID=:input_cust_id and a.PRINT_DATE=:print_date"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>登入使用者</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -482,37 +363,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>欄位說明APF0002MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0002MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>method-bsLoadAPF0002MM1Qry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數名稱(中/英)</t>
-  </si>
-  <si>
-    <t>型    態</t>
-  </si>
-  <si>
-    <t>參        數        說        明</t>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>方    法    說    明</t>
-  </si>
-  <si>
-    <t>補充說明(可填可不填，因詳細資料於錯誤代碼清單中已經詳述)</t>
-  </si>
-  <si>
     <t>帳號登入認證</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -691,10 +541,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>emp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_User</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -759,21 +605,71 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>輸入型態:string
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
+2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0002MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0002MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>依所輸入的帳號進行密碼提示查詢。
+1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
+2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考</t>
+      <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號、密碼</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <u/>
         <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>APF訊息表-APF_NO 35</t>
+      <t>及是否需要變更密碼</t>
     </r>
     <r>
       <rPr>
@@ -782,143 +678,56 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>，並將cursor停留於該欄位且顏色反橘。</t>
+      <t>，經由Querystring模式，提供APF預設處理頁面(RA006_APF0001_登入主畫面與框架顯示)進行後續處理。
+2.若驗證失敗，
+2.1顯示錯誤訊息，並將密碼欄位清除。
+2.2將帳號密碼欄位顏色反橘。</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，並將cursor停留於該欄位且顏色反橘。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息顯示錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。
-2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號、密碼經由Querystring模式，提供APF預設處理頁面(RA006_APF0001_登入主畫面與框架顯示)進行後續處理。
-2.若驗證失敗，則顯示錯誤訊息。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>依所輸入的帳號進行密碼提示查詢。
-1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
-2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2"/>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_user_profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_remind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼更新日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO查詢密碼更新日，判斷是否須變更密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢密碼時顯示。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1064,15 +873,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1122,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1300,24 +1101,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1409,36 +1192,36 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1474,9 +1257,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,85 +1346,106 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,39 +1455,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,9 +1472,123 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,197 +1607,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3120,546 +2819,6 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10465" name="群組 1"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="57150"/>
-          <a:ext cx="12011025" cy="609600"/>
-          <a:chOff x="0" y="57150"/>
-          <a:chExt cx="11744325" cy="514350"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10466" name="Line 8"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="57150"/>
-            <a:ext cx="11744325" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150" cmpd="thinThick">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10252" name="Rectangle 12"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="133350"/>
-            <a:ext cx="1171575" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>大項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Online</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>作業</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10253" name="Rectangle 13"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1019175" y="133350"/>
-            <a:ext cx="1971675" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>中項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>使用者管理</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10254" name="Rectangle 14"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2990850" y="133350"/>
-            <a:ext cx="3228975" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>細項</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0002 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>帳號登入認證</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10255" name="Rectangle 15"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6229350" y="133350"/>
-            <a:ext cx="3914775" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>標題</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0002MM1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>SSO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>登入頁</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10256" name="Rectangle 16"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10039350" y="133350"/>
-            <a:ext cx="981075" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作人</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>陳慕霖</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10257" name="Rectangle 17"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10906125" y="133350"/>
-            <a:ext cx="838200" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作日</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>20131011</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4241,39 +3400,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11570" name="群組 10"/>
+        <xdr:cNvPr id="10465" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9191625" cy="647700"/>
+          <a:off x="0" y="57150"/>
+          <a:ext cx="12011025" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11571" name="Line 8"/>
+          <xdr:cNvPr id="10466" name="Line 8"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4306,7 +3465,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="10252" name="Rectangle 12"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4314,7 +3473,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="0" y="133350"/>
-            <a:ext cx="1168347" cy="438150"/>
+            <a:ext cx="1171575" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4378,15 +3537,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="10253" name="Rectangle 13"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="1022304" y="133350"/>
-            <a:ext cx="1971586" cy="438150"/>
+            <a:off x="1019175" y="133350"/>
+            <a:ext cx="1971675" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4422,9 +3581,7 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
+            <a:pPr rtl="0"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
                 <a:effectLst/>
@@ -4443,10 +3600,8 @@
               </a:rPr>
               <a:t>使用者管理</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
               <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             </a:endParaRPr>
@@ -4455,15 +3610,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="10254" name="Rectangle 14"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="2993890" y="133350"/>
-            <a:ext cx="3225126" cy="438150"/>
+            <a:off x="2990850" y="133350"/>
+            <a:ext cx="3228975" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4520,23 +3675,23 @@
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
               <a:effectLst/>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvPr id="10255" name="Rectangle 15"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="6231186" y="133350"/>
-            <a:ext cx="3918832" cy="438150"/>
+            <a:off x="6229350" y="133350"/>
+            <a:ext cx="3914775" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4572,7 +3727,21 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr algn="l" rtl="0">
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
@@ -4594,7 +3763,7 @@
               <a:t>SSO</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
                 <a:effectLst/>
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
@@ -4602,6 +3771,16 @@
               </a:rPr>
               <a:t>登入頁</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -4614,15 +3793,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvPr id="10256" name="Rectangle 16"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="10040485" y="133350"/>
-            <a:ext cx="985793" cy="438150"/>
+            <a:off x="10039350" y="133350"/>
+            <a:ext cx="981075" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4688,15 +3867,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectangle 17"/>
+          <xdr:cNvPr id="10257" name="Rectangle 17"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="10904575" y="133350"/>
-            <a:ext cx="839750" cy="438150"/>
+            <a:off x="10906125" y="133350"/>
+            <a:ext cx="838200" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4736,25 +3915,20 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>20131011</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
             <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               <a:cs typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -5141,7 +4315,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5154,110 +4328,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="74" t="s">
-        <v>88</v>
+      <c r="A4" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>147</v>
+      <c r="D4" s="146" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69" t="s">
+        <v>61</v>
+      </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="74"/>
+    <row r="12" spans="1:4" ht="16.5">
+      <c r="A12" s="69"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5293,17 +4469,17 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D5" location="APF0002MM1!A1" display="View"/>
     <hyperlink ref="D5" location="APF0001MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="欄位說明APF0002MM1!A1" display="View"/>
-    <hyperlink ref="D6" location="'method-bsLoadAPF0002MM1Qry'!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位說明APF0002MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5320,9 +4496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="34" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="34" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="33" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="33" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
@@ -5332,8 +4508,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="75" t="s">
-        <v>85</v>
+      <c r="E1" s="70" t="s">
+        <v>58</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5355,7 +4531,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="76"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5369,7 +4545,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="76"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5394,18 +4570,18 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="25"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -5414,129 +4590,129 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="31" customFormat="1">
+    <row r="6" spans="1:19" s="30" customFormat="1">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>73</v>
+      <c r="B6" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="28">
+        <v>50</v>
+      </c>
+      <c r="D6" s="27">
         <v>41558</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:19" s="31" customFormat="1">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:19" s="30" customFormat="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="19"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1">
+    <row r="8" spans="1:19" s="30" customFormat="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="19"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:19" s="31" customFormat="1">
+    <row r="9" spans="1:19" s="30" customFormat="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="19"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:19" s="31" customFormat="1">
+    <row r="10" spans="1:19" s="30" customFormat="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="19"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:19" s="31" customFormat="1">
+    <row r="11" spans="1:19" s="30" customFormat="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="19"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1">
+    <row r="12" spans="1:19" s="30" customFormat="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="19"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:19" s="31" customFormat="1">
+    <row r="13" spans="1:19" s="30" customFormat="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="19"/>
       <c r="D13" s="17"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="32"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="33"/>
+      <c r="A31" s="32"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="33"/>
+      <c r="A32" s="32"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="33"/>
+      <c r="A33" s="32"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="33"/>
+      <c r="A37" s="32"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="33"/>
+      <c r="A39" s="32"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="33"/>
+      <c r="A40" s="32"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5562,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5576,222 +4752,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="75" t="s">
-        <v>85</v>
+      <c r="M1" s="70" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="76"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" s="57" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-    </row>
-    <row r="7" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
-    </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="86" t="s">
-        <v>99</v>
+      <c r="M3" s="71"/>
+    </row>
+    <row r="4" spans="1:13" s="55" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
-      <c r="F8" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-    </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-    </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="86" t="s">
-        <v>101</v>
+      <c r="F8" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
-      <c r="F10" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-    </row>
-    <row r="12" spans="1:13" s="39" customFormat="1">
-      <c r="A12" s="86" t="s">
-        <v>71</v>
+      <c r="F10" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1">
+      <c r="A12" s="80" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-    </row>
-    <row r="13" spans="1:13" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-    </row>
-    <row r="14" spans="1:13" s="39" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="86" t="s">
-        <v>103</v>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="80" t="s">
+        <v>67</v>
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
-      <c r="F14" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-    </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-    </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="80"/>
+      <c r="F14" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+    </row>
+    <row r="15" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+    </row>
+    <row r="16" spans="1:13" s="36" customFormat="1" ht="186" customHeight="1">
+      <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
@@ -5802,42 +4978,49 @@
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
+      <c r="L16" s="88"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
+      <c r="A17" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
+      <c r="A37" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A37:L37"/>
@@ -5854,13 +5037,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5953,10 +5129,844 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="35" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="55" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17" s="55" customFormat="1">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:17" s="55" customFormat="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:17" s="55" customFormat="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" s="55" customFormat="1">
+      <c r="A5" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+    </row>
+    <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" s="36" customFormat="1">
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
+    </row>
+    <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A11" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A15" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140"/>
+    </row>
+    <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A17" s="46">
+        <v>1</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A18" s="46">
+        <v>2</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
+    </row>
+    <row r="19" spans="1:10" s="36" customFormat="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="1:10" s="36" customFormat="1">
+      <c r="A20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="104"/>
+    </row>
+    <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A21" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+    </row>
+    <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
+    </row>
+    <row r="23" spans="1:10" s="36" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A23" s="46">
+        <v>1</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
+    </row>
+    <row r="24" spans="1:10" s="36" customFormat="1">
+      <c r="A24" s="122"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
+    </row>
+    <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="135"/>
+    </row>
+    <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A26" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+    </row>
+    <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="140"/>
+    </row>
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A28" s="46">
+        <v>1</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="143"/>
+    </row>
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A29" s="46">
+        <v>2</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="143"/>
+    </row>
+    <row r="30" spans="1:10" s="36" customFormat="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
+    </row>
+    <row r="31" spans="1:10" s="36" customFormat="1">
+      <c r="A31" s="122"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+    </row>
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="135"/>
+    </row>
+    <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="43">
+        <v>1</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+    </row>
+    <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="1:12" s="36" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A36" s="46">
+        <v>1</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+    </row>
+    <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
+      <c r="A37" s="46">
+        <v>2</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+    </row>
+    <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
+      <c r="A38" s="46">
+        <v>3</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+    </row>
+    <row r="39" spans="1:12" s="36" customFormat="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="64"/>
+    </row>
+    <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
+    </row>
+    <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="73"/>
+    </row>
+    <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
+    </row>
+    <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="48"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="102"/>
+    </row>
+    <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+    </row>
+    <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A47" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+    </row>
+    <row r="48" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="48">
+        <v>2</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="E36:J36"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
+詳細設計書</oddHeader>
+    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5986,8 +5996,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="75" t="s">
-        <v>85</v>
+      <c r="K1" s="70" t="s">
+        <v>58</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6013,7 +6023,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6031,7 +6041,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6075,18 +6085,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
+      <c r="A6" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6096,34 +6106,34 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="16" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -6153,177 +6163,229 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="A10" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="97">
+      <c r="A12" s="92">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>134</v>
-      </c>
       <c r="F12" s="20" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="98"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="19" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>125</v>
+        <v>81</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="97">
+      <c r="A14" s="92">
         <v>2</v>
       </c>
-      <c r="B14" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>128</v>
+      <c r="B14" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>141</v>
+        <v>81</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="19" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="99">
-      <c r="A16" s="22">
+        <v>81</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="33">
+      <c r="A16" s="66">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="66">
+        <v>4</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="54" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="99">
+      <c r="A18" s="22">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6354,1220 +6416,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="36" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="57" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" s="57" customFormat="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:17" s="57" customFormat="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:17" s="57" customFormat="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-    </row>
-    <row r="5" spans="1:17" s="57" customFormat="1">
-      <c r="A5" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:17" s="37" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:17" s="37" customFormat="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:17" s="37" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-    </row>
-    <row r="10" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
-    </row>
-    <row r="11" spans="1:17" s="39" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-    </row>
-    <row r="13" spans="1:17" s="39" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-    </row>
-    <row r="14" spans="1:17" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-    </row>
-    <row r="15" spans="1:17" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-    </row>
-    <row r="16" spans="1:17" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A17" s="47">
-        <v>1</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A18" s="47">
-        <v>2</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115"/>
-    </row>
-    <row r="19" spans="1:10" s="37" customFormat="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="110"/>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-    </row>
-    <row r="22" spans="1:10" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="23" spans="1:10" s="37" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A23" s="47">
-        <v>1</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110"/>
-    </row>
-    <row r="24" spans="1:10" s="37" customFormat="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="140"/>
-    </row>
-    <row r="25" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="138"/>
-    </row>
-    <row r="26" spans="1:10" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113"/>
-    </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A28" s="47">
-        <v>1</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110"/>
-    </row>
-    <row r="29" spans="1:10" s="37" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A29" s="47">
-        <v>2</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
-    </row>
-    <row r="30" spans="1:10" s="37" customFormat="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-    </row>
-    <row r="31" spans="1:10" s="37" customFormat="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="127"/>
-    </row>
-    <row r="32" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="138"/>
-    </row>
-    <row r="33" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="44">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-    </row>
-    <row r="35" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="119" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12" s="37" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A36" s="47">
-        <v>1</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-    </row>
-    <row r="37" spans="1:12" s="37" customFormat="1" ht="72" customHeight="1">
-      <c r="A37" s="47">
-        <v>2</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-    </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="33" customHeight="1">
-      <c r="A38" s="47">
-        <v>3</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-    </row>
-    <row r="39" spans="1:12" s="37" customFormat="1">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72"/>
-    </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="150"/>
-    </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="146" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
-    </row>
-    <row r="42" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="142"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
-    </row>
-    <row r="43" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="79"/>
-    </row>
-    <row r="44" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
-    </row>
-    <row r="45" spans="1:12" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="142"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="144"/>
-    </row>
-    <row r="46" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
-    </row>
-    <row r="47" spans="1:12" s="37" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="49">
-        <v>1</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="49">
-        <v>2</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="141"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="141"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
-詳細設計書</oddHeader>
-    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="57" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="9" style="57"/>
-    <col min="5" max="5" width="10.75" style="57" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="57" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="57" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="57" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="157"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="159" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="164"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="167" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="65">
-        <v>1</v>
-      </c>
-      <c r="B8" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="65">
-        <v>2</v>
-      </c>
-      <c r="B9" s="157" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="65">
-        <v>3</v>
-      </c>
-      <c r="B10" s="157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="65">
-        <v>1</v>
-      </c>
-      <c r="B12" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-    </row>
-    <row r="13" spans="1:19" ht="189.75" customHeight="1">
-      <c r="A13" s="65">
-        <v>2</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="165">
-        <v>3</v>
-      </c>
-      <c r="B14" s="151" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="165"/>
-      <c r="B15" s="165" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="165"/>
-      <c r="B16" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="156" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="165"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="165"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="165"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="165"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="J1:J3" location="總表!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="3" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
-詳細設計書</oddHeader>
-    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.SSO驗證密碼成功後，交由APF進行後續登入作業。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者進行SSO登入時</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -618,11 +614,6 @@
   </si>
   <si>
     <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
-2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -728,6 +719,15 @@
   <si>
     <t>查詢密碼時顯示。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SSO驗證密碼成功後，交由APF進行後續登入作業。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
+2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1385,6 +1385,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,6 +1459,147 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,150 +1616,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2665,8 +2665,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2711,14 +2711,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4328,12 +4328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -4365,70 +4365,70 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="146" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4508,7 +4508,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="13"/>
@@ -4531,7 +4531,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4545,7 +4545,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="71"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -4736,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4752,15 +4752,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" s="55" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="56"/>
@@ -4777,240 +4777,240 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="84" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="72" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="72" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1">
+      <c r="A12" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-    </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:13" s="36" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="88"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="74" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5023,7 +5023,7 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A45:L45"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5062,8 +5062,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5076,19 +5076,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5145,8 +5145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5175,7 +5175,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="L1" s="35"/>
@@ -5196,7 +5196,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="56"/>
@@ -5209,7 +5209,7 @@
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="56"/>
@@ -5224,414 +5224,414 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="A11" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
+      <c r="A15" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="140"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
         <v>1</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
+        <v>74</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
+        <v>83</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="104"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="98"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="A21" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A23" s="46">
         <v>1</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+        <v>74</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="122"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
+      <c r="A26" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="C27" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="140"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
+        <v>74</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
         <v>2</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
+        <v>83</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="135"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
@@ -5646,14 +5646,14 @@
       <c r="D33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="120" t="s">
+      <c r="E33" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -5664,26 +5664,26 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="118"/>
+      <c r="A35" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="112"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -5692,60 +5692,60 @@
         <v>1</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="E36" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="46">
         <v>2</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
+      <c r="E37" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="46">
         <v>3</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
+      <c r="E38" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1">
       <c r="A39" s="59"/>
@@ -5760,96 +5760,96 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="105" t="s">
+      <c r="C41" s="101"/>
+      <c r="D41" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="96"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="102"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="96"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="49" t="s">
@@ -5872,14 +5872,14 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
@@ -5888,14 +5888,14 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -5965,7 +5965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -5996,7 +5996,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>58</v>
       </c>
       <c r="L1" s="13"/>
@@ -6023,7 +6023,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="71"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6041,7 +6041,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6085,18 +6085,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6163,18 +6163,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+      <c r="A10" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6209,107 +6209,107 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="92">
+      <c r="A12" s="140">
         <v>1</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>91</v>
+      <c r="B12" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="142" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="93"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="140">
+        <v>2</v>
+      </c>
+      <c r="B14" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="142" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="92">
-        <v>2</v>
-      </c>
-      <c r="B14" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>92</v>
+      <c r="D14" s="142" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="93"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6317,25 +6317,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
       <c r="E16" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6343,25 +6343,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
       <c r="E17" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="54" t="s">
         <v>131</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="99">
@@ -6369,23 +6369,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -728,6 +723,10 @@
     <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
 2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1192,7 +1191,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1400,14 +1399,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1415,21 +1444,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1445,20 +1459,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1472,12 +1582,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,111 +1598,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,6 +1615,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2679,7 +2684,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2687,17 +2692,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2731,7 +2725,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2739,17 +2733,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2783,7 +2766,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2791,17 +2774,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2813,6 +2785,584 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0002 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>帳號登入認證</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3400,7 +3950,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4738,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -4777,250 +5327,243 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="85" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="73" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:13" s="36" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="89"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A45:L45"/>
@@ -5037,6 +5580,13 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5128,15 +5678,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="148"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="148"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="6145" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="6145" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -5224,154 +5825,154 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
@@ -5380,16 +5981,16 @@
       <c r="B16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
@@ -5398,16 +5999,16 @@
       <c r="B17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
@@ -5416,54 +6017,54 @@
       <c r="B18" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="139"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="98"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
@@ -5472,16 +6073,16 @@
       <c r="B22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A23" s="46">
@@ -5490,56 +6091,56 @@
       <c r="B23" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -5548,16 +6149,16 @@
       <c r="B27" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="96"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="46">
@@ -5566,16 +6167,16 @@
       <c r="B28" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
@@ -5584,54 +6185,54 @@
       <c r="B29" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
@@ -5646,14 +6247,14 @@
       <c r="D33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="114" t="s">
+      <c r="E33" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -5664,26 +6265,26 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -5698,14 +6299,14 @@
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="46">
@@ -5718,14 +6319,14 @@
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="105" t="s">
+      <c r="E37" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="46">
@@ -5738,14 +6339,14 @@
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1">
       <c r="A39" s="59"/>
@@ -5760,96 +6361,96 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="99" t="s">
+      <c r="C41" s="136"/>
+      <c r="D41" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="74"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="74"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="75"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="49" t="s">
@@ -5872,14 +6473,14 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="75"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
@@ -5888,30 +6489,33 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="E36:J36"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A35:J35"/>
@@ -5928,22 +6532,19 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -1459,6 +1464,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,12 +1626,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2684,7 +2689,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2692,6 +2697,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2710,7 +2726,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2725,7 +2741,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2733,6 +2749,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2766,7 +2793,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2774,6 +2801,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2812,7 +2850,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2820,6 +2858,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5288,8 +5337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5636,7 +5685,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>59</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -5681,22 +5730,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="147" t="s">
+      <c r="P1" s="93" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="148"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="148"/>
+      <c r="P3" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5825,7 +5874,7 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="84"/>
@@ -5851,45 +5900,45 @@
       <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="84" t="s">
@@ -5905,7 +5954,7 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="126" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="74"/>
@@ -5919,7 +5968,7 @@
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="113" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="84"/>
@@ -5933,7 +5982,7 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="74"/>
@@ -5947,7 +5996,7 @@
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="113" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="84"/>
@@ -5961,18 +6010,18 @@
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
@@ -5981,16 +6030,16 @@
       <c r="B16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
@@ -5999,16 +6048,16 @@
       <c r="B17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
@@ -6017,54 +6066,54 @@
       <c r="B18" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
@@ -6073,16 +6122,16 @@
       <c r="B22" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="53.25" customHeight="1">
       <c r="A23" s="46">
@@ -6091,56 +6140,56 @@
       <c r="B23" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -6149,16 +6198,16 @@
       <c r="B27" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="31.5" customHeight="1">
       <c r="A28" s="46">
@@ -6167,16 +6216,16 @@
       <c r="B28" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
@@ -6185,54 +6234,54 @@
       <c r="B29" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
@@ -6247,14 +6296,14 @@
       <c r="D33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -6265,7 +6314,7 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="93"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -6273,18 +6322,18 @@
       <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="112"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -6299,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="95" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="77"/>
@@ -6319,7 +6368,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="95" t="s">
         <v>119</v>
       </c>
       <c r="F37" s="77"/>
@@ -6339,7 +6388,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="95" t="s">
         <v>108</v>
       </c>
       <c r="F38" s="77"/>
@@ -6361,28 +6410,28 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="134" t="s">
+      <c r="C41" s="138"/>
+      <c r="D41" s="136" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="74"/>
@@ -6393,22 +6442,22 @@
       <c r="J41" s="75"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="135"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="134"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="136"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -6418,9 +6467,9 @@
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="134"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
@@ -6429,22 +6478,22 @@
       <c r="J44" s="75"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="134"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="136"/>
       <c r="E46" s="74"/>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
@@ -6473,7 +6522,7 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="105"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="74"/>
       <c r="E48" s="74"/>
       <c r="F48" s="74"/>
@@ -6489,14 +6538,14 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -6686,18 +6735,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6764,18 +6813,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6810,16 +6859,16 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="140">
+      <c r="A12" s="142">
         <v>1</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="144" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -6840,10 +6889,10 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="141"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="19" t="s">
         <v>97</v>
       </c>
@@ -6862,16 +6911,16 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="140">
+      <c r="A14" s="142">
         <v>2</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="144" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -6892,10 +6941,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="141"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="19" t="s">
         <v>100</v>
       </c>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0002MM1!$A$1:$J$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0002MM1!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0002MM1!$A$1:$J$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0002MM1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0002MM1!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -163,7 +163,505 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入使用者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0002_帳號登入認證 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號登入認證</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號登入認證</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大處理人數 -  3000人
+concurrent數 1500人 - 3秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.檢核人員帳號密碼是否正確。
+2 忘記密碼時密碼提示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者進行SSO登入時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 主檔已建立使用者帳號。
+2 APF已設定預設密碼。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0002MM1_Login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0002MM1_Login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『確認』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0002MM1_Login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『系統登入』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtACCOUNT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD模組人員主檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF使用者設定檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtPASSWORD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0002MM1_Login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『密碼提示』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>系統登入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>common_parameter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF使用者設定檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF common_parameter參數檔取得預設密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0002MM1_Login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0002MM1_Login畫面所有欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0002MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0002MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>依所輸入的帳號進行密碼提示查詢。
+1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
+2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_user_profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SSO驗證密碼成功後，交由APF進行後續登入作業。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
+2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文50(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號，經由Querystring模式，提供APF預設處理頁面(APF0001MM1)進行後續處理。
+2.若驗證失敗，
+2.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3，並將密碼欄位清除。
+2.2將帳號密碼欄位顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
+輸入帳號失效，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PWD_remind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtMESSAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢密碼時顯示，及顯示系統訊息。系統訊息請參考APF訊息提示。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -182,556 +680,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
+    <t>輸入/輸出/必填</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入使用者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0002_帳號登入認證 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號登入認證</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號登入認證</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大處理人數 -  3000人
-concurrent數 1500人 - 3秒以內</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.檢核人員帳號密碼是否正確。
-2 忘記密碼時密碼提示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者進行SSO登入時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1 主檔已建立使用者帳號。
-2 APF已設定預設密碼。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0002MM1_Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0002MM1_Login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0002MM1_Login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『系統登入』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtACCOUNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMD模組人員主檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF使用者設定檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtPASSWORD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtMESSAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:
-  1.2.1 使用者狀態為生效中。
-  1.2.2 使用者並無重複登入，或選擇清除前次登入。
-  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.若查無此帳號，則回應「帳號不存在」訊息；
-2.若密碼輸入錯誤，則回應「密碼錯誤」訊息；
-3.若輸入帳號已停用，則回應「帳號已失效」訊息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0002MM1_Login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『密碼提示』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>系統登入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>common_parameter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter_value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF使用者設定檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF common_parameter參數檔取得預設密碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0002MM1_Login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0002MM1_Login畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則出現錯誤訊息顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0002MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0002MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>依所輸入的帳號進行密碼提示查詢。
-1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
-2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號、密碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及是否需要變更密碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，經由Querystring模式，提供APF預設處理頁面(RA006_APF0001_登入主畫面與框架顯示)進行後續處理。
-2.若驗證失敗，
-2.1顯示錯誤訊息，並將密碼欄位清除。
-2.2將帳號密碼欄位顏色反橘。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_user_profile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD_update</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD_remind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼更新日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSO查詢密碼更新日，判斷是否須變更密碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢密碼時顯示。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.SSO驗證密碼成功後，交由APF進行後續登入作業。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
-2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -741,7 +691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -871,13 +821,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1196,7 +1139,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1404,44 +1347,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2669,13 +2606,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2721,13 +2658,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2736,58 +2673,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4024,7 +3909,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12011025" cy="609600"/>
+          <a:ext cx="12382500" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4928,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -4936,64 +4821,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="70" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="70"/>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -5108,7 +4993,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5172,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
@@ -5194,10 +5079,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="27">
         <v>41558</v>
@@ -5335,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5352,7 +5237,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
       <c r="M1" s="71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5376,261 +5261,229 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-    </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>63</v>
+      <c r="A8" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="77"/>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
-      <c r="F8" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
+      <c r="F8" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="A9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="82" t="s">
-        <v>65</v>
+      <c r="A10" s="76" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
-      <c r="F10" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="F10" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
+      <c r="A11" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="82" t="s">
-        <v>44</v>
+      <c r="A12" s="76" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
+      <c r="A13" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>66</v>
+      <c r="A14" s="76" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
-      <c r="F14" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-    </row>
-    <row r="15" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-    </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="75"/>
+      <c r="F14" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A43:L43"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
@@ -5655,13 +5508,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -5680,13 +5533,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -5695,31 +5548,6 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5737,15 +5565,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="93" t="s">
-        <v>134</v>
+      <c r="P1" s="91" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="94"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="94"/>
+      <c r="P3" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5795,8 +5623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:J29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5826,7 +5654,7 @@
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
       <c r="K1" s="71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5874,436 +5702,436 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="A15" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+        <v>65</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
         <v>1</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="101"/>
+        <v>70</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
+        <v>79</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
+      <c r="A21" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
-    </row>
-    <row r="23" spans="1:10" s="36" customFormat="1" ht="53.25" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+    </row>
+    <row r="23" spans="1:10" s="36" customFormat="1" ht="71.25" customHeight="1">
       <c r="A23" s="46">
         <v>1</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
+        <v>70</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="98"/>
-    </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" ht="31.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="96"/>
+    </row>
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="52.5" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
+        <v>70</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
         <v>2</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101"/>
+        <v>79</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="101"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="A32" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="E33" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -6314,7 +6142,7 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="95"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -6322,18 +6150,18 @@
       <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
+      <c r="A35" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -6342,14 +6170,14 @@
         <v>1</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="95" t="s">
-        <v>120</v>
+      <c r="E36" s="93" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
@@ -6362,14 +6190,14 @@
         <v>2</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="95" t="s">
-        <v>119</v>
+      <c r="E37" s="93" t="s">
+        <v>107</v>
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="77"/>
@@ -6382,14 +6210,14 @@
         <v>3</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="95" t="s">
-        <v>108</v>
+      <c r="E38" s="93" t="s">
+        <v>100</v>
       </c>
       <c r="F38" s="77"/>
       <c r="G38" s="77"/>
@@ -6410,96 +6238,96 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="136" t="s">
+      <c r="C41" s="136"/>
+      <c r="D41" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="135"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="135"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="75"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="49" t="s">
@@ -6522,14 +6350,14 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="75"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
@@ -6538,14 +6366,14 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -6613,10 +6441,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6629,7 +6457,7 @@
     <col min="6" max="6" width="16.875" style="15" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="11" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="15" customWidth="1"/>
     <col min="10" max="10" width="34.75" style="15" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="15"/>
@@ -6647,7 +6475,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6735,18 +6563,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="146" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="A6" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6765,7 +6593,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -6777,10 +6605,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6813,31 +6641,31 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
+      <c r="A10" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -6849,117 +6677,117 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="142">
+      <c r="A12" s="140">
         <v>1</v>
       </c>
-      <c r="B12" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="144" t="s">
+      <c r="B12" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="144" t="s">
-        <v>90</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="143"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="142">
+      <c r="A14" s="140">
         <v>2</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="144" t="s">
-        <v>91</v>
+      <c r="D14" s="142" t="s">
+        <v>87</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="143"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6967,76 +6795,42 @@
         <v>3</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="19" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="66">
-        <v>4</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="99">
-      <c r="A18" s="22">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>96</v>
-      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -629,13 +629,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號，經由Querystring模式，提供APF預設處理頁面(APF0001MM1)進行後續處理。
-2.若驗證失敗，
-2.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3，並將密碼欄位清除。
-2.2將帳號密碼欄位顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
 輸入帳號失效，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
     <phoneticPr fontId="2"/>
@@ -682,6 +675,13 @@
   <si>
     <t>輸入/輸出/必填</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號，經由Cookie模式，提供APF預設處理頁面(APF0001MM1)進行後續處理。
+2.若驗證失敗，
+2.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3，並將密碼欄位清除。
+2.2將帳號密碼欄位顏色反橘。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1347,6 +1347,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1356,60 +1401,129 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,124 +1542,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5222,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5261,213 +5261,218 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="88" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="80" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="80" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A43:L43"/>
@@ -5484,11 +5489,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5623,8 +5623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5702,154 +5702,154 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
@@ -5858,16 +5858,16 @@
       <c r="B16" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
@@ -5876,16 +5876,16 @@
       <c r="B17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
@@ -5894,54 +5894,54 @@
       <c r="B18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="98"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
@@ -5950,16 +5950,16 @@
       <c r="B22" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="71.25" customHeight="1">
       <c r="A23" s="46">
@@ -5968,56 +5968,56 @@
       <c r="B23" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="99"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -6026,16 +6026,16 @@
       <c r="B27" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="52.5" customHeight="1">
       <c r="A28" s="46">
@@ -6044,16 +6044,16 @@
       <c r="B28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
+      <c r="C28" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
@@ -6062,54 +6062,54 @@
       <c r="B29" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
@@ -6124,14 +6124,14 @@
       <c r="D33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -6142,26 +6142,26 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="112"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -6176,14 +6176,14 @@
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
+      <c r="E36" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="46">
@@ -6196,14 +6196,14 @@
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="46">
@@ -6216,14 +6216,14 @@
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1">
       <c r="A39" s="59"/>
@@ -6238,96 +6238,96 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="134" t="s">
+      <c r="C41" s="101"/>
+      <c r="D41" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="96"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="79"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="96"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="49" t="s">
@@ -6350,14 +6350,14 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
@@ -6366,17 +6366,46 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="C49:J49"/>
     <mergeCell ref="A42:J42"/>
@@ -6393,35 +6422,6 @@
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6443,7 +6443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -6593,7 +6593,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -6608,7 +6608,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6662,10 +6662,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -6680,7 +6680,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -6798,16 +6798,16 @@
         <v>88</v>
       </c>
       <c r="C16" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>110</v>
@@ -6817,7 +6817,7 @@
         <v>111</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:10">

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -2607,13 +2607,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>209549</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5222,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5513,7 +5513,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -5623,8 +5623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:J36"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -1347,12 +1347,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,21 +1386,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1392,21 +1401,123 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,12 +1530,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1441,111 +1546,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,13 +2607,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>209549</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2664,7 +2664,7 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5222,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5261,218 +5261,213 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="85" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="73" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="74"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A43:L43"/>
@@ -5489,6 +5484,11 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5539,7 +5539,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -5702,154 +5702,154 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
@@ -5858,16 +5858,16 @@
       <c r="B16" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
@@ -5876,16 +5876,16 @@
       <c r="B17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
@@ -5894,54 +5894,54 @@
       <c r="B18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="139"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="98"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
@@ -5950,16 +5950,16 @@
       <c r="B22" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="71.25" customHeight="1">
       <c r="A23" s="46">
@@ -5968,56 +5968,56 @@
       <c r="B23" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
@@ -6026,16 +6026,16 @@
       <c r="B27" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="96"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="52.5" customHeight="1">
       <c r="A28" s="46">
@@ -6044,16 +6044,16 @@
       <c r="B28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
@@ -6062,54 +6062,54 @@
       <c r="B29" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
@@ -6124,14 +6124,14 @@
       <c r="D33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="114" t="s">
+      <c r="E33" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -6142,26 +6142,26 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
@@ -6176,14 +6176,14 @@
         <v>17</v>
       </c>
       <c r="D36" s="57"/>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="46">
@@ -6196,14 +6196,14 @@
         <v>17</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="105" t="s">
+      <c r="E37" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="46">
@@ -6216,14 +6216,14 @@
         <v>17</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1">
       <c r="A39" s="59"/>
@@ -6238,96 +6238,96 @@
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="99" t="s">
+      <c r="C41" s="136"/>
+      <c r="D41" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="74"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="74"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="49" t="s">
@@ -6350,14 +6350,14 @@
       <c r="B48" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
@@ -6366,30 +6366,33 @@
       <c r="B49" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="E36:J36"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A35:J35"/>
@@ -6406,22 +6409,19 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -128,10 +128,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -503,10 +499,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>系統登入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>common_parameter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -527,22 +519,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0002MM1_Login</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>清除APF0002MM1_Login畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>View</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -565,12 +545,6 @@
   <si>
     <t>欄位_APF0002MM1</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>依所輸入的帳號進行密碼提示查詢。
-1.若曾設定提示資訊，則將設定內容顯示於訊息視窗。
-2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>vw_emp_unique</t>
@@ -600,27 +574,6 @@
   <si>
     <t>回總表</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文50(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.前畫面:無
@@ -635,14 +588,6 @@
   </si>
   <si>
     <t>PWD_remind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtMESSAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -677,10 +622,53 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文50(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>系統登入</t>
+  </si>
+  <si>
+    <t>_CLICK</t>
+  </si>
+  <si>
     <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號，經由Cookie模式，提供APF預設處理頁面(APF0001MM1)進行後續處理。
 2.若驗證失敗，
 2.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3，並將密碼欄位清除。
 2.2將帳號密碼欄位顏色反橘。</t>
+  </si>
+  <si>
+    <t>密碼提示</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>清除APF0002MM1_Login畫面所有欄位</t>
+  </si>
+  <si>
+    <t>依所輸入的帳號進行密碼提示查詢。
+1.若曾設定提示資訊，則將設定內容顯示於MsgBox。
+1.1.透過AJAX呼叫APF0301_帳號設定Web API，並傳入使用者帳號。
+1.2.若有設定提示則將設定內容顯示於MsgBox。
+2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1139,7 +1127,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1269,164 +1257,170 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4812,107 +4806,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="68" t="s">
-        <v>104</v>
+      <c r="D4" s="65" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>57</v>
+      <c r="A5" s="72" t="s">
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="6" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="70"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="70"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="70"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="70"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="70"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="70"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4992,8 +4986,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="71" t="s">
-        <v>54</v>
+      <c r="E1" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5015,7 +5009,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="72"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5029,7 +5023,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="72"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5057,13 +5051,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="13"/>
@@ -5079,10 +5073,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="27">
         <v>41558</v>
@@ -5222,7 +5216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
@@ -5236,235 +5230,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="71" t="s">
-        <v>54</v>
+      <c r="M1" s="73" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="72"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="72"/>
-    </row>
-    <row r="4" spans="1:13" s="55" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
-    </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="88" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-    </row>
-    <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
+      <c r="A10" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-    </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-    </row>
-    <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1">
+      <c r="A12" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-    </row>
-    <row r="12" spans="1:13" s="38" customFormat="1">
-      <c r="A12" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-    </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-    </row>
-    <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="A15" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
+      <c r="A43" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5565,15 +5559,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="91" t="s">
-        <v>114</v>
+      <c r="P1" s="93" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="92"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="92"/>
+      <c r="P3" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5623,8 +5617,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5642,19 +5636,19 @@
     <col min="11" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="55" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="71" t="s">
-        <v>54</v>
+    <row r="1" spans="1:17" s="54" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5663,475 +5657,475 @@
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
     </row>
-    <row r="2" spans="1:17" s="55" customFormat="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="72"/>
-    </row>
-    <row r="3" spans="1:17" s="55" customFormat="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" s="55" customFormat="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+    <row r="2" spans="1:17" s="54" customFormat="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" s="54" customFormat="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="1:17" s="54" customFormat="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:17" s="54" customFormat="1">
+      <c r="A5" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="A10" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="A15" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
         <v>1</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
+        <v>78</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="A21" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="71.25" customHeight="1">
       <c r="A23" s="46">
         <v>1</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="99"/>
+        <v>69</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
+      <c r="A26" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="C27" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="97"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="52.5" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
+        <v>69</v>
+      </c>
+      <c r="C28" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
         <v>2</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
+        <v>78</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
+      <c r="A32" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="C33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="E33" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
@@ -6142,238 +6136,244 @@
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="110"/>
+      <c r="A35" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="112"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" s="36" customFormat="1" ht="138.75" customHeight="1">
-      <c r="A36" s="46">
+      <c r="A36" s="67">
         <v>1</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-    </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="72" customHeight="1">
-      <c r="A37" s="46">
+      <c r="B36" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+    </row>
+    <row r="37" spans="1:12" s="36" customFormat="1" ht="114.75" customHeight="1">
+      <c r="A37" s="67">
         <v>2</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="B37" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
-      <c r="A38" s="46">
+      <c r="A38" s="67">
         <v>3</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
+      <c r="B38" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="64"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="134" t="s">
+      <c r="C41" s="138"/>
+      <c r="D41" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="135"/>
     </row>
     <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="79"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="81"/>
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="48">
+      <c r="A48" s="47">
         <v>1</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="48">
+      <c r="A49" s="47">
         <v>2</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -6392,10 +6392,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="D41:J41"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="A31:J31"/>
@@ -6409,19 +6405,23 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
+    <mergeCell ref="E37:J37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6443,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6474,8 +6474,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="71" t="s">
-        <v>54</v>
+      <c r="K1" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6501,7 +6501,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="72"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6519,7 +6519,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="72"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6563,18 +6563,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="A6" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6593,22 +6593,22 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6641,183 +6641,179 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="A10" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="140">
+      <c r="A12" s="142">
         <v>1</v>
       </c>
-      <c r="B12" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="142" t="s">
-        <v>86</v>
+      <c r="B12" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="141"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="142">
+        <v>2</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="144" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="140">
-        <v>2</v>
-      </c>
-      <c r="B14" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="142" t="s">
-        <v>87</v>
+      <c r="D14" s="144" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="141"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>96</v>
+        <v>75</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
-      <c r="A16" s="66">
+      <c r="A16" s="63">
         <v>3</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>122</v>
-      </c>
+      <c r="B16" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6830,7 +6826,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="54"/>
+      <c r="J17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
+++ b/APF/RA006/RA006_APF0002_帳號登入認證.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0002MM1!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0002MM1!$A$1:$J$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0002MM1!$A$1:$J$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0002MM1!$1:$5</definedName>
@@ -199,31 +199,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -519,10 +495,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>APF0002MM1_Login</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>View</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -565,11 +537,6 @@
   <si>
     <t>1.SSO驗證密碼成功後，交由APF進行後續登入作業。</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
-2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>回總表</t>
@@ -579,11 +546,6 @@
     <t>1.前畫面:無
 1.1 SESSION內容:
 1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
-輸入帳號失效，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -649,26 +611,66 @@
     <t>_CLICK</t>
   </si>
   <si>
+    <t>密碼提示</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>清除APF0002MM1_Login畫面所有欄位</t>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0002MM1_Login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之帳號必須存在於CMD emp或APF Core_User資料表中，若不存在則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3。
+輸入帳號失效，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 01003。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.若為第一次登入，密碼必須等於APF預設密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 01003。
+2.若非第一次登入，密碼必須等於使用者設定之密碼，否則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 01003。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.由CMD人員主檔及APF的使用者設定檔，以及APF common_parameter參數檔，取得人員帳號、密碼，並與使用者輸入之帳號、密碼進行比對，驗證成功後，SSO生成驗證通過token，將通過驗證的帳號，經由Cookie模式，提供APF預設處理頁面(APF0001MM1)進行後續處理。
-2.若驗證失敗，
-2.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 3，並將密碼欄位清除。
-2.2將帳號密碼欄位顏色反橘。</t>
-  </si>
-  <si>
-    <t>密碼提示</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>清除APF0002MM1_Login畫面所有欄位</t>
+2.於此判斷使用者是否使用預設密碼登入，若是則透過 DB [UserLogin] Stored Procedure 呼叫 DB [IsDefaultPassword] Stored Procedure，再呼叫DB [MustChangePassword] Stored Procedure 將該使用者之需要變更密碼狀態設為 true 以利進入 APF 頁面後直接導至變更密碼頁面。
+3.於此亦判斷使用者是否超過三個月無變更密碼，若是則透過 DB [UserLogin] Stored Procedure 呼叫 DB [IsPasswordExpired] Stored Procedure，再呼叫DB [MustChangePassword] Stored Procedure 將該使用者之需要變更密碼狀態設為 true 以利進入 APF 頁面後直接導至變更密碼頁面。
+4.若驗證失敗，
+4.1顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 01003，並將密碼欄位清除。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>依所輸入的帳號進行密碼提示查詢。
 1.若曾設定提示資訊，則將設定內容顯示於MsgBox。
-1.1.透過AJAX呼叫APF0301_帳號設定Web API，並傳入使用者帳號。
+1.1.透過AJAX呼叫APF0301_帳號設定Web API[ /WebApi/PassHint/[UserName]]，並傳入使用者帳號。
 1.2.若有設定提示則將設定內容顯示於MsgBox。
-2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 8。</t>
+2.若未設定提示資訊，則顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 01011。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1127,7 +1129,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1401,6 +1403,66 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,127 +1481,61 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4807,7 +4803,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4815,64 +4811,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="65" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4987,7 +4983,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5051,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
@@ -5073,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" s="27">
         <v>41558</v>
@@ -5216,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5231,7 +5227,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
       <c r="M1" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5272,7 +5268,7 @@
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
@@ -5306,14 +5302,14 @@
     </row>
     <row r="8" spans="1:13" s="38" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="78" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
       <c r="F8" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="80"/>
@@ -5342,14 +5338,14 @@
     </row>
     <row r="10" spans="1:13" s="38" customFormat="1" ht="42" customHeight="1">
       <c r="A10" s="78" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="80" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
@@ -5378,7 +5374,7 @@
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1">
       <c r="A12" s="78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -5412,14 +5408,14 @@
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" ht="40.5" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
       <c r="E14" s="79"/>
       <c r="F14" s="80" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="80"/>
@@ -5430,7 +5426,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -5446,7 +5442,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="85" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -5560,7 +5556,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="93" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -5617,8 +5613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5648,7 +5644,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="55"/>
       <c r="K1" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5696,8 +5692,8 @@
       <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:17" s="54" customFormat="1">
-      <c r="A5" s="113" t="s">
-        <v>32</v>
+      <c r="A5" s="134" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -5722,49 +5718,49 @@
       <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:17" s="36" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>43</v>
+      <c r="A10" s="134" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="83"/>
       <c r="D10" s="83"/>
@@ -5776,8 +5772,8 @@
       <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A11" s="126" t="s">
-        <v>109</v>
+      <c r="A11" s="130" t="s">
+        <v>101</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -5790,7 +5786,7 @@
       <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="134" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="83"/>
@@ -5804,7 +5800,7 @@
       <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="130" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="80"/>
@@ -5818,7 +5814,7 @@
       <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="134" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="83"/>
@@ -5832,311 +5828,299 @@
       <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="A15" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:17" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="67.5" customHeight="1">
       <c r="A17" s="46">
         <v>1</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
+        <v>63</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="46">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
+        <v>72</v>
+      </c>
+      <c r="C18" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
+      <c r="A21" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
+        <v>58</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="71.25" customHeight="1">
       <c r="A23" s="46">
         <v>1</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
+        <v>63</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113"/>
     </row>
     <row r="27" spans="1:10" s="36" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="97"/>
+        <v>58</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="52.5" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="46">
         <v>2</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
+        <v>72</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-    </row>
-    <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
-    </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
+    </row>
+    <row r="32" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
     </row>
     <row r="33" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="39" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-    </row>
-    <row r="34" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+    </row>
+    <row r="34" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="43">
         <v>1</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="101"/>
+      <c r="E34" s="107"/>
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
       <c r="H34" s="79"/>
@@ -6144,55 +6128,53 @@
       <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="36" spans="1:12" s="36" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A35" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+    </row>
+    <row r="36" spans="1:12" s="66" customFormat="1" ht="265.5" customHeight="1">
       <c r="A36" s="67">
         <v>1</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="101" t="s">
-        <v>121</v>
+      <c r="E36" s="107" t="s">
+        <v>124</v>
       </c>
       <c r="F36" s="79"/>
       <c r="G36" s="79"/>
       <c r="H36" s="79"/>
       <c r="I36" s="79"/>
       <c r="J36" s="79"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-    </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="114.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:12" s="66" customFormat="1" ht="114.75" customHeight="1">
       <c r="A37" s="67">
         <v>2</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D37" s="69"/>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="107" t="s">
         <v>125</v>
       </c>
       <c r="F37" s="79"/>
@@ -6200,32 +6182,28 @@
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-    </row>
-    <row r="38" spans="1:12" s="36" customFormat="1" ht="33" customHeight="1">
+    </row>
+    <row r="38" spans="1:12" s="66" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="67">
         <v>3</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D38" s="69"/>
-      <c r="E38" s="101" t="s">
-        <v>124</v>
+      <c r="E38" s="107" t="s">
+        <v>114</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
       <c r="J38" s="79"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-    </row>
-    <row r="39" spans="1:12" s="36" customFormat="1">
+    </row>
+    <row r="39" spans="1:12" s="66" customFormat="1">
       <c r="A39" s="56"/>
       <c r="B39" s="57"/>
       <c r="C39" s="58"/>
@@ -6237,29 +6215,29 @@
       <c r="I39" s="60"/>
       <c r="J39" s="61"/>
     </row>
-    <row r="40" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="139" t="s">
+    <row r="40" spans="1:12" s="66" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
-    </row>
-    <row r="41" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
+    </row>
+    <row r="41" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="136" t="s">
+      <c r="C41" s="106"/>
+      <c r="D41" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="80"/>
@@ -6270,22 +6248,22 @@
       <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="135"/>
-    </row>
-    <row r="43" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+    </row>
+    <row r="43" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="47"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="136"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="80"/>
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
@@ -6293,11 +6271,11 @@
       <c r="I43" s="80"/>
       <c r="J43" s="81"/>
     </row>
-    <row r="44" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="47"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="136"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="80"/>
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
@@ -6306,22 +6284,22 @@
       <c r="J44" s="81"/>
     </row>
     <row r="45" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="135"/>
-    </row>
-    <row r="46" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+    </row>
+    <row r="46" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="47"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="136"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="80"/>
       <c r="F46" s="80"/>
       <c r="G46" s="80"/>
@@ -6329,7 +6307,7 @@
       <c r="I46" s="80"/>
       <c r="J46" s="81"/>
     </row>
-    <row r="47" spans="1:12" s="36" customFormat="1" ht="17.25" customHeight="1">
+    <row r="47" spans="1:12" s="66" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="48" t="s">
         <v>3</v>
       </c>
@@ -6343,14 +6321,14 @@
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
     </row>
-    <row r="48" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:12" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="47">
         <v>1</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="107"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
       <c r="F48" s="80"/>
@@ -6366,42 +6344,25 @@
       <c r="B49" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="44">
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="D41:J41"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A32:J32"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A15:J15"/>
@@ -6409,19 +6370,35 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A35:J35"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E36:J36"/>
     <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6443,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
@@ -6475,7 +6452,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6563,18 +6540,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="A6" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6593,7 +6570,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>20</v>
@@ -6605,10 +6582,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6641,18 +6618,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="146" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
+      <c r="A10" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6662,10 +6639,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>20</v>
@@ -6677,117 +6654,117 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="142">
+      <c r="A12" s="140">
         <v>1</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="144" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="143"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="142">
+      <c r="A14" s="140">
         <v>2</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="144" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="143"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6795,25 +6772,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10">
